--- a/File 1-Portfolios byhand.xlsx
+++ b/File 1-Portfolios byhand.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAA8109-E2F2-4BB2-B197-3467AC9E4F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6EB6E4-7B56-42DD-B13C-8B44807FD065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -15,8 +15,8 @@
   <definedNames>
     <definedName name="BIG">'Classification-Interactions'!$A$123:$A$137</definedName>
     <definedName name="MEDIUM">'Classification-Interactions'!$C$106:$C$116</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Classification-Interactions'!#REF!</definedName>
     <definedName name="SMALL">'Classification-Interactions'!$A$106:$A$120</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Classification-Interactions'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -1751,7 +1751,7 @@
     <cellStyle name="NewSectionHeaderNormal" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="NewTitleNormal" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="8" builtinId="5"/>
+    <cellStyle name="Percent" xfId="8" builtinId="5"/>
     <cellStyle name="SectionHeaderNormal" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="SubScript" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="SuperScript" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
@@ -2238,7 +2238,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="167.7109375" style="2" customWidth="1"/>
@@ -2304,6 +2304,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:A8"/>
@@ -2325,7 +2326,7 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
     <col min="2" max="5" width="22.42578125" style="1" customWidth="1"/>
@@ -2875,7 +2876,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>49</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="58" t="s">
         <v>139</v>
       </c>
@@ -7704,6 +7705,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A72:G101">
     <sortCondition descending="1" ref="G72:G101"/>
   </sortState>
@@ -7738,7 +7740,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="18" width="16.85546875" style="1" customWidth="1"/>
     <col min="19" max="21" width="11.42578125" style="1" customWidth="1"/>
@@ -8610,6 +8612,7 @@
       <c r="R16" s="97"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="U2:U7"/>
     <mergeCell ref="U8:U15"/>
